--- a/dengeki-adventures/checklist.xlsx
+++ b/dengeki-adventures/checklist.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/dengeki-adventures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/japanese-collectors-list/dengeki-adventures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84500E65-05B8-9A42-A288-D57F4C35A5B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC12933-ACF5-3947-ABD8-5B2519972A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{700B0416-4242-FC40-9C8C-5261AFD435B5}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="16360" xr2:uid="{700B0416-4242-FC40-9C8C-5261AFD435B5}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -588,7 +589,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -639,6 +640,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1994</v>
+      </c>
       <c r="B3" t="s">
         <v>34</v>
       </c>
@@ -657,6 +661,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1994</v>
+      </c>
       <c r="B4" t="s">
         <v>35</v>
       </c>
@@ -675,6 +682,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1994</v>
+      </c>
       <c r="B5" t="s">
         <v>36</v>
       </c>
@@ -693,6 +703,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1994</v>
+      </c>
       <c r="B6" t="s">
         <v>37</v>
       </c>
@@ -711,6 +724,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1994</v>
+      </c>
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -729,6 +745,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1995</v>
+      </c>
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -747,6 +766,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1995</v>
+      </c>
       <c r="B9" t="s">
         <v>40</v>
       </c>
@@ -765,6 +787,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1995</v>
+      </c>
       <c r="B10" t="s">
         <v>41</v>
       </c>
@@ -783,6 +808,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1995</v>
+      </c>
       <c r="B11" t="s">
         <v>42</v>
       </c>
@@ -801,6 +829,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1995</v>
+      </c>
       <c r="B12" t="s">
         <v>43</v>
       </c>
@@ -819,6 +850,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1995</v>
+      </c>
       <c r="B13" t="s">
         <v>44</v>
       </c>
@@ -837,6 +871,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1996</v>
+      </c>
       <c r="B14" t="s">
         <v>45</v>
       </c>
@@ -855,6 +892,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1996</v>
+      </c>
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -873,6 +913,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1996</v>
+      </c>
       <c r="B16" t="s">
         <v>47</v>
       </c>
